--- a/data/trans_dic/ProbViv_estruc-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Dificultad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.2793526127426843</v>
+        <v>0.2793526127426842</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2113509962835878</v>
+        <v>0.2113509962835879</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.2415382575450961</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2423634728937779</v>
+        <v>0.2373936110229067</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.184059715069438</v>
+        <v>0.1813889332060399</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2172896279605483</v>
+        <v>0.2157573333513856</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3285355887278904</v>
+        <v>0.3257334066031247</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2444259278174831</v>
+        <v>0.2442133647712242</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2676303224922564</v>
+        <v>0.2686110545836566</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.1134705807782134</v>
+        <v>0.1134705807782135</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.1242757530039886</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09176145077662512</v>
+        <v>0.09118910502383272</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1074534344658859</v>
+        <v>0.1082521698627268</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1049587958429389</v>
+        <v>0.1053864346519627</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1408016154722146</v>
+        <v>0.1399159845766665</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1435181097738495</v>
+        <v>0.1448849233463768</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.134008871166174</v>
+        <v>0.1329566467960639</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.0615459900876952</v>
+        <v>0.06154599008769521</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.07263780966236365</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04859687513279184</v>
+        <v>0.04845091164294861</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05862542789485161</v>
+        <v>0.05937967167154128</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05796769722435462</v>
+        <v>0.0578075514010191</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07802724744815384</v>
+        <v>0.07911262399581521</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08809886690340718</v>
+        <v>0.08945326146747178</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07909811053204051</v>
+        <v>0.07911006675299972</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.03844986484005864</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04121314374109653</v>
+        <v>0.04121314374109655</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.0397829462423639</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02709590805775173</v>
+        <v>0.02703617366074674</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02930851999998926</v>
+        <v>0.03018638835994787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03139011247886435</v>
+        <v>0.03125833142319769</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05590876261410364</v>
+        <v>0.05621018505689334</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0554938323569751</v>
+        <v>0.0557768512113904</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05059043622093071</v>
+        <v>0.05187991498072526</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08939215613081866</v>
+        <v>0.0896287340158876</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09447688528287589</v>
+        <v>0.0951847190125386</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09486753259355392</v>
+        <v>0.0950685321870251</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1129648544612009</v>
+        <v>0.1122570432298742</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.113269048524048</v>
+        <v>0.1142537966760964</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1099294322852426</v>
+        <v>0.1095020841823294</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>120650</v>
+        <v>118176</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>114776</v>
+        <v>113111</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>243665</v>
+        <v>241947</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>163547</v>
+        <v>162152</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>152419</v>
+        <v>152287</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>300117</v>
+        <v>301216</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>88104</v>
+        <v>87554</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>119826</v>
+        <v>120717</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>217819</v>
+        <v>218707</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>135189</v>
+        <v>134339</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>160044</v>
+        <v>161568</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>278106</v>
+        <v>275923</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>50856</v>
+        <v>50703</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>61327</v>
+        <v>62116</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>121301</v>
+        <v>120966</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>81654</v>
+        <v>82790</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>92158</v>
+        <v>93575</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>165517</v>
+        <v>165542</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>26444</v>
+        <v>26385</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>26661</v>
+        <v>27459</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>59189</v>
+        <v>58940</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>54563</v>
+        <v>54857</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>50481</v>
+        <v>50738</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>95393</v>
+        <v>97824</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>311116</v>
+        <v>311939</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>349041</v>
+        <v>351656</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>680657</v>
+        <v>682099</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>393157</v>
+        <v>390694</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>418468</v>
+        <v>422106</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>788723</v>
+        <v>785657</v>
       </c>
     </row>
     <row r="24">
